--- a/2023f1data.xlsx
+++ b/2023f1data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bluei\Files\Documents\Programming\GitHub\python-data-analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B811E2C4-2546-4B75-B2CD-6B842A80F797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25563B6-D3AC-491A-95BD-ED8562838292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{A79084E8-4B44-4213-BE0F-29AE977AE163}"/>
   </bookViews>
@@ -697,11 +697,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B33649-678E-47BF-B00F-890D17CF4DDA}">
-  <dimension ref="A2:Z48"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -711,961 +709,1041 @@
     <col min="4" max="4" width="10.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>67</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>575</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>73</v>
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" t="s">
-        <v>76</v>
+        <v>34</v>
+      </c>
+      <c r="J2">
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="L2">
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" t="s">
-        <v>85</v>
+        <v>36</v>
+      </c>
+      <c r="Q2">
+        <v>25</v>
+      </c>
+      <c r="R2">
+        <v>25</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
       </c>
       <c r="T2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s">
-        <v>88</v>
-      </c>
-      <c r="W2" t="s">
-        <v>89</v>
+        <v>36</v>
+      </c>
+      <c r="W2">
+        <v>25</v>
       </c>
       <c r="X2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>91</v>
+        <v>36</v>
+      </c>
+      <c r="Y2">
+        <v>25</v>
       </c>
       <c r="Z2" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>575</v>
+        <v>285</v>
       </c>
       <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
+      <c r="G3" t="s">
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="I3">
+        <v>18</v>
       </c>
       <c r="J3">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>15</v>
+      </c>
+      <c r="P3">
+        <v>18</v>
       </c>
       <c r="Q3">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R3">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="S3">
-        <v>10</v>
-      </c>
-      <c r="T3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="W3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Y3">
-        <v>25</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="Z3">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>285</v>
+        <v>234</v>
       </c>
       <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
         <v>18</v>
       </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4">
         <v>18</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>15</v>
+      </c>
+      <c r="O4">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4">
+      <c r="P4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4">
         <v>8</v>
       </c>
-      <c r="O4">
-        <v>15</v>
-      </c>
-      <c r="P4">
-        <v>18</v>
-      </c>
-      <c r="Q4">
-        <v>12</v>
-      </c>
       <c r="R4">
-        <v>18</v>
-      </c>
-      <c r="S4">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="S4" t="s">
+        <v>46</v>
       </c>
       <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="U4" t="s">
+        <v>47</v>
       </c>
       <c r="V4" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="W4" t="s">
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Y4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="Z4">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>206</v>
+      </c>
+      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>234</v>
-      </c>
-      <c r="E5">
+      <c r="P5">
         <v>10</v>
       </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5">
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5">
-        <v>18</v>
-      </c>
-      <c r="L5">
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>15</v>
       </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5">
-        <v>15</v>
-      </c>
-      <c r="O5">
-        <v>12</v>
-      </c>
-      <c r="P5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5">
-        <v>8</v>
-      </c>
-      <c r="R5">
-        <v>8</v>
-      </c>
-      <c r="S5" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5">
-        <v>10</v>
-      </c>
-      <c r="U5" t="s">
-        <v>47</v>
-      </c>
-      <c r="V5" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5" t="s">
-        <v>49</v>
-      </c>
       <c r="Y5">
+        <v>2</v>
+      </c>
+      <c r="Z5">
         <v>6</v>
-      </c>
-      <c r="Z5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>206</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>12</v>
+      </c>
+      <c r="M6">
+        <v>18</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12</v>
+      </c>
+      <c r="S6">
+        <v>12</v>
+      </c>
+      <c r="T6">
+        <v>12</v>
+      </c>
+      <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="V6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6">
         <v>15</v>
       </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="J6">
+      <c r="X6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y6">
         <v>18</v>
       </c>
-      <c r="K6">
-        <v>6</v>
-      </c>
-      <c r="L6">
+      <c r="Z6">
         <v>18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6">
-        <v>6</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6">
-        <v>10</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>4</v>
-      </c>
-      <c r="U6" t="s">
-        <v>52</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>15</v>
-      </c>
-      <c r="Y6">
-        <v>2</v>
-      </c>
-      <c r="Z6">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>205</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>18</v>
+      </c>
+      <c r="O7">
+        <v>18</v>
+      </c>
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>206</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-      <c r="J7">
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>12</v>
-      </c>
-      <c r="M7">
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7">
         <v>18</v>
       </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
-      <c r="P7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>12</v>
-      </c>
-      <c r="S7">
-        <v>12</v>
-      </c>
       <c r="T7">
-        <v>12</v>
-      </c>
-      <c r="U7">
+        <v>18</v>
+      </c>
+      <c r="U7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7">
         <v>10</v>
       </c>
-      <c r="V7" t="s">
-        <v>49</v>
-      </c>
-      <c r="W7">
-        <v>15</v>
-      </c>
       <c r="X7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="Y7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>205</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <v>15</v>
+      </c>
+      <c r="S8">
+        <v>25</v>
+      </c>
+      <c r="T8">
         <v>8</v>
       </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
+      <c r="U8" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8">
         <v>12</v>
       </c>
-      <c r="N8">
-        <v>18</v>
-      </c>
-      <c r="O8">
-        <v>18</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="X8" t="s">
         <v>52</v>
       </c>
-      <c r="Q8">
-        <v>6</v>
-      </c>
-      <c r="R8">
-        <v>4</v>
-      </c>
-      <c r="S8">
-        <v>18</v>
-      </c>
-      <c r="T8">
-        <v>18</v>
-      </c>
-      <c r="U8" t="s">
-        <v>54</v>
-      </c>
-      <c r="V8" t="s">
-        <v>55</v>
-      </c>
-      <c r="W8">
-        <v>10</v>
-      </c>
-      <c r="X8" t="s">
-        <v>56</v>
-      </c>
       <c r="Y8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z8">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>175</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>200</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-      <c r="F9">
+      <c r="K9">
+        <v>15</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
         <v>8</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9">
+      <c r="P9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>10</v>
       </c>
-      <c r="J9">
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W9">
+        <v>8</v>
+      </c>
+      <c r="X9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9">
         <v>4</v>
       </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-      <c r="M9" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
-      </c>
-      <c r="P9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q9">
-        <v>10</v>
-      </c>
-      <c r="R9">
+      <c r="Z9">
         <v>15</v>
-      </c>
-      <c r="S9">
-        <v>25</v>
-      </c>
-      <c r="T9">
-        <v>8</v>
-      </c>
-      <c r="U9" t="s">
-        <v>58</v>
-      </c>
-      <c r="V9" t="s">
-        <v>42</v>
-      </c>
-      <c r="W9">
-        <v>12</v>
-      </c>
-      <c r="X9" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y9">
-        <v>8</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>97</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>12</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+      <c r="P10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>15</v>
+      </c>
+      <c r="U10" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z10">
         <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>175</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10">
-        <v>12</v>
-      </c>
-      <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="K10">
-        <v>15</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10">
-        <v>10</v>
-      </c>
-      <c r="O10">
-        <v>8</v>
-      </c>
-      <c r="P10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>10</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>6</v>
-      </c>
-      <c r="U10" t="s">
-        <v>60</v>
-      </c>
-      <c r="V10" t="s">
-        <v>61</v>
-      </c>
-      <c r="W10">
-        <v>8</v>
-      </c>
-      <c r="X10" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y10">
-        <v>4</v>
-      </c>
-      <c r="Z10">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>74</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>97</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+      <c r="H11" t="s">
+        <v>48</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>1</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>12</v>
-      </c>
-      <c r="O11">
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>6</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>10</v>
       </c>
-      <c r="P11" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>6</v>
-      </c>
-      <c r="T11">
-        <v>15</v>
-      </c>
-      <c r="U11" t="s">
-        <v>62</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>4</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>63</v>
+      <c r="Y11">
+        <v>10</v>
       </c>
       <c r="Z11">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12">
+        <v>15</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
         <v>8</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>8</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
+      <c r="T12">
         <v>1</v>
       </c>
-      <c r="P12">
-        <v>2</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12" t="s">
-        <v>14</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
         <v>0</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="s">
+        <v>43</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
         <v>6</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>10</v>
-      </c>
       <c r="Y12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="J13">
+        <v>15</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>2</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13">
+      <c r="U13">
         <v>6</v>
       </c>
-      <c r="K13">
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
         <v>1</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
+      <c r="X13">
         <v>1</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13">
-        <v>15</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>8</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
-        <v>43</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>6</v>
-      </c>
       <c r="Y13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -1673,79 +1751,79 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>4</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>6</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14">
         <v>2</v>
       </c>
-      <c r="J14">
-        <v>15</v>
-      </c>
-      <c r="K14">
-        <v>4</v>
-      </c>
-      <c r="L14">
-        <v>4</v>
-      </c>
-      <c r="M14" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>4</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
+      <c r="W14">
         <v>2</v>
       </c>
-      <c r="U14">
-        <v>6</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
       <c r="X14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -1753,28 +1831,28 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1786,106 +1864,106 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>65</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
         <v>4</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>4</v>
-      </c>
-      <c r="R15">
-        <v>6</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15" t="s">
-        <v>64</v>
-      </c>
-      <c r="V15">
-        <v>2</v>
-      </c>
-      <c r="W15">
-        <v>2</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>14</v>
-      </c>
       <c r="S16">
         <v>0</v>
       </c>
@@ -1893,45 +1971,45 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16" t="s">
-        <v>65</v>
+        <v>4</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
-      <c r="X16" t="s">
-        <v>57</v>
+      <c r="X16">
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1946,10 +2024,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>58</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1964,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -1973,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -1993,46 +2071,46 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
         <v>6</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" t="s">
+        <v>14</v>
       </c>
       <c r="M18" t="s">
-        <v>58</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="N18" t="s">
+        <v>14</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2040,26 +2118,26 @@
       <c r="P18">
         <v>0</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
+      <c r="Q18" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" t="s">
+        <v>14</v>
+      </c>
+      <c r="T18" t="s">
+        <v>14</v>
+      </c>
+      <c r="U18" t="s">
+        <v>14</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -2073,46 +2151,46 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <v>6</v>
       </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" t="s">
-        <v>14</v>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2120,26 +2198,26 @@
       <c r="P19">
         <v>0</v>
       </c>
-      <c r="Q19" t="s">
-        <v>14</v>
-      </c>
-      <c r="R19" t="s">
-        <v>14</v>
-      </c>
-      <c r="S19" t="s">
-        <v>14</v>
-      </c>
-      <c r="T19" t="s">
-        <v>14</v>
-      </c>
-      <c r="U19" t="s">
-        <v>14</v>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -2153,37 +2231,37 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2207,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>0</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2233,52 +2311,52 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N21" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" t="s">
+        <v>14</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2287,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2295,70 +2373,70 @@
       <c r="U21">
         <v>0</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
+      <c r="V21" t="s">
+        <v>14</v>
+      </c>
+      <c r="W21" t="s">
+        <v>14</v>
+      </c>
+      <c r="X21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>14</v>
-      </c>
-      <c r="K22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N22" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22" t="s">
-        <v>14</v>
-      </c>
-      <c r="P22" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2367,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -2375,34 +2453,34 @@
       <c r="U22">
         <v>0</v>
       </c>
-      <c r="V22" t="s">
-        <v>14</v>
-      </c>
-      <c r="W22" t="s">
-        <v>14</v>
-      </c>
-      <c r="X22" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>14</v>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2434,122 +2512,45 @@
       <c r="N23">
         <v>0</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24" t="s">
-        <v>14</v>
-      </c>
-      <c r="P24" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>14</v>
-      </c>
-      <c r="R24" t="s">
-        <v>14</v>
-      </c>
-      <c r="S24" t="s">
-        <v>14</v>
-      </c>
-      <c r="T24" t="s">
-        <v>14</v>
-      </c>
-      <c r="U24" t="s">
-        <v>14</v>
-      </c>
-      <c r="V24" t="s">
-        <v>14</v>
-      </c>
-      <c r="W24" t="s">
-        <v>14</v>
-      </c>
-      <c r="X24" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>14</v>
-      </c>
+      <c r="O23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>14</v>
+      </c>
+      <c r="R23" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23" t="s">
+        <v>14</v>
+      </c>
+      <c r="T23" t="s">
+        <v>14</v>
+      </c>
+      <c r="U23" t="s">
+        <v>14</v>
+      </c>
+      <c r="V23" t="s">
+        <v>14</v>
+      </c>
+      <c r="W23" t="s">
+        <v>14</v>
+      </c>
+      <c r="X23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.4">
       <c r="B27" s="1"/>
@@ -2613,9 +2614,6 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B48" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
